--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/97.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/97.xlsx
@@ -479,13 +479,13 @@
         <v>-16.55421534690226</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.93382850719693</v>
+        <v>-14.73912869772891</v>
       </c>
       <c r="F2" t="n">
-        <v>-5.680155870836795</v>
+        <v>-5.691796596186919</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.051004062278544</v>
+        <v>-7.003419358442861</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-16.29646922889751</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.83635637729125</v>
+        <v>-14.67976148734396</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.780884079315843</v>
+        <v>-5.768373110743408</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.244980298730262</v>
+        <v>-7.20274905741385</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-16.11367843992961</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.11248259612774</v>
+        <v>-14.9687653502679</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.82361399933268</v>
+        <v>-5.821057048741283</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.04717596990175</v>
+        <v>-7.012063122583567</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.04228436929115</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.92156687797471</v>
+        <v>-14.80470494683484</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.405383906902441</v>
+        <v>-5.422637212135784</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.006191425336402</v>
+        <v>-6.964845094262902</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.06226244780133</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.01746474766924</v>
+        <v>-14.90017747293195</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.357730756970621</v>
+        <v>-5.363064663462425</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.940967184724889</v>
+        <v>-6.929370460436568</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-16.17207213046054</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.37320844333344</v>
+        <v>-15.24971701888204</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.251101517203206</v>
+        <v>-5.263211587212553</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.69628216904953</v>
+        <v>-6.704974823258905</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-16.34625430107257</v>
       </c>
       <c r="E8" t="n">
-        <v>-15.62215178398989</v>
+        <v>-15.49899281200543</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.161554467428791</v>
+        <v>-5.182489194832921</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.744424219668042</v>
+        <v>-6.753082650829348</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-16.5708827830761</v>
       </c>
       <c r="E9" t="n">
-        <v>-15.85616898668164</v>
+        <v>-15.73240377784568</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.916028542572323</v>
+        <v>-4.931316467045166</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.339575339032549</v>
+        <v>-6.353773014974069</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-16.81654337821433</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.21228913587459</v>
+        <v>-16.08170865146615</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.734895727159991</v>
+        <v>-4.760851464616442</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.280183683613266</v>
+        <v>-6.312759136367521</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-17.06363365931311</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.3398286580118</v>
+        <v>-16.20826059421625</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.857639133560757</v>
+        <v>-4.877107158904813</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.886608852812879</v>
+        <v>-5.918446065530229</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-17.28651086165687</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.76679540571321</v>
+        <v>-16.63320329307476</v>
       </c>
       <c r="F12" t="n">
-        <v>-4.509292505286201</v>
+        <v>-4.540440368035315</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.749335318003641</v>
+        <v>-5.814217328134469</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-17.46888452484095</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.13642388087945</v>
+        <v>-16.99223240135353</v>
       </c>
       <c r="F13" t="n">
-        <v>-4.217301459166572</v>
+        <v>-4.258242002670118</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.957347893170271</v>
+        <v>-6.000420043667792</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-17.60140610410693</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.31374815994246</v>
+        <v>-17.17863067716153</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.906766410000735</v>
+        <v>-3.945966467059659</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.739488858173674</v>
+        <v>-5.78653088224713</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-17.68256618817303</v>
       </c>
       <c r="E15" t="n">
-        <v>-17.50853108252722</v>
+        <v>-17.37938796613766</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.765728339903973</v>
+        <v>-3.809753846740542</v>
       </c>
       <c r="G15" t="n">
-        <v>-5.506102337367755</v>
+        <v>-5.543244122535708</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-17.72175865451084</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.93452491786212</v>
+        <v>-17.80429155294124</v>
       </c>
       <c r="F16" t="n">
-        <v>-3.295728553759971</v>
+        <v>-3.33595041325408</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.176637053613224</v>
+        <v>-5.204778177139186</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-17.72690827697306</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.58193698519273</v>
+        <v>-18.44954267923667</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.121142118542438</v>
+        <v>-3.164419607328369</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.134048914795528</v>
+        <v>-5.166345694158368</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-17.71394276723311</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.03440479271197</v>
+        <v>-18.91261963165712</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.749954050185655</v>
+        <v>-2.783844645787109</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.913764932392941</v>
+        <v>-4.9280603884718</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-17.68464765087937</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.46005639756619</v>
+        <v>-19.33466314944355</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.48974643770784</v>
+        <v>-2.502873421145507</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.630314981269813</v>
+        <v>-4.648286970512593</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-17.64861515926217</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.86529150974417</v>
+        <v>-19.74965183032103</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.108614129383752</v>
+        <v>-2.127255912567299</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.614455042993541</v>
+        <v>-4.617779567663043</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-17.59688826057389</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.42048712955103</v>
+        <v>-20.27924861017272</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.925799495609201</v>
+        <v>-1.922690087241843</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.566586776759577</v>
+        <v>-4.575861222786115</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-17.53252119091692</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.74964929487981</v>
+        <v>-20.63157489003695</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.683612762442835</v>
+        <v>-1.68140293133899</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.419457004106638</v>
+        <v>-4.423065091174421</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-17.44227850412516</v>
       </c>
       <c r="E23" t="n">
-        <v>-21.11914576686064</v>
+        <v>-20.99320494996891</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.52104350610418</v>
+        <v>-1.51901456825441</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.309591241793325</v>
+        <v>-4.318068779700556</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-17.32632494629977</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.54949570731396</v>
+        <v>-21.44012862370107</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.366013098354307</v>
+        <v>-1.375942671301011</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.359146215396375</v>
+        <v>-4.383048569968722</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-17.17282843676906</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.00663740539798</v>
+        <v>-21.88694473928217</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.161647722310395</v>
+        <v>-1.174007131669956</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.370464266293284</v>
+        <v>-4.386021086143807</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-16.98693315895161</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.91745214213172</v>
+        <v>-21.79012773629665</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.010753414369932</v>
+        <v>-0.9975139837743262</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.452565358609387</v>
+        <v>-4.479068664834932</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-16.764410626289</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.2262369268392</v>
+        <v>-22.10741939295256</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.8836783478850785</v>
+        <v>-0.8652907930586115</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.47770952092593</v>
+        <v>-4.490024929223688</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-16.51210450242235</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.24490315505708</v>
+        <v>-22.12099127601512</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.6618885513674819</v>
+        <v>-0.655498619392424</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.431009727333159</v>
+        <v>-4.449284835001686</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-16.23049090076587</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.44767471486238</v>
+        <v>-22.33281238753108</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.7494604423676625</v>
+        <v>-0.737878385099941</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.191399500785656</v>
+        <v>-4.212735126752873</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-15.92604732345249</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.61596410923532</v>
+        <v>-22.50351206228941</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.5624021506326297</v>
+        <v>-0.5388322485272327</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.409243868761653</v>
+        <v>-4.433014220148594</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-15.60479246156933</v>
       </c>
       <c r="E31" t="n">
-        <v>-22.62189447456489</v>
+        <v>-22.50418185623018</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.762993213375283</v>
+        <v>-0.7348960909111228</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.156047092130994</v>
+        <v>-4.20282022082677</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-15.2717625527522</v>
       </c>
       <c r="E32" t="n">
-        <v>-22.55053941934227</v>
+        <v>-22.43485084985046</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.6467032960388441</v>
+        <v>-0.6265752547677552</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.139062682275332</v>
+        <v>-4.184329996856097</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-14.93634091778129</v>
       </c>
       <c r="E33" t="n">
-        <v>-22.24030748860218</v>
+        <v>-22.14508430185528</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6472850878560069</v>
+        <v>-0.6196524210442037</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.953818212087925</v>
+        <v>-4.015708150016201</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-14.59999787013175</v>
       </c>
       <c r="E34" t="n">
-        <v>-22.05820176082333</v>
+        <v>-21.9577962267975</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.7831994787562425</v>
+        <v>-0.7604851528525557</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.51722989887242</v>
+        <v>-3.60519779942882</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-14.27378212700164</v>
       </c>
       <c r="E35" t="n">
-        <v>-21.87607158801015</v>
+        <v>-21.79120820681424</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.7681951166816805</v>
+        <v>-0.7541001098843647</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.396901661863909</v>
+        <v>-3.497678760411627</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.95553794088464</v>
       </c>
       <c r="E36" t="n">
-        <v>-21.9524769873263</v>
+        <v>-21.85357237840861</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9667767976020319</v>
+        <v>-0.9327004197396347</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.351013443411045</v>
+        <v>-3.442789880316773</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.65498303619889</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.4590099682211</v>
+        <v>-21.36547837785015</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.069783283281063</v>
+        <v>-1.031981482186077</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.251781271033273</v>
+        <v>-3.356274014799846</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.36612509842889</v>
       </c>
       <c r="E38" t="n">
-        <v>-21.41192883209271</v>
+        <v>-21.31551761667715</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.321513357851647</v>
+        <v>-1.284591577992705</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.9261049676006</v>
+        <v>-3.008636292520992</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.09631353753122</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.79418814743741</v>
+        <v>-20.68889849555153</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.259970539410921</v>
+        <v>-1.225591043122775</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.831517351746397</v>
+        <v>-2.928363688773115</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-12.83688781733482</v>
       </c>
       <c r="E40" t="n">
-        <v>-20.59083968482181</v>
+        <v>-20.48867899733076</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.561602707072106</v>
+        <v>-1.528797470995107</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.696145640608389</v>
+        <v>-2.788459868269477</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-12.59199371854275</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.05172400860024</v>
+        <v>-19.94875663497614</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.395684481029613</v>
+        <v>-1.353438572692601</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.368279062099339</v>
+        <v>-2.453768236174213</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-12.35132106312079</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.57794013114124</v>
+        <v>-19.44842056122293</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.461549181540692</v>
+        <v>-1.431134669821614</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.001222204545098</v>
+        <v>-2.107372321639556</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.11496660220343</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.2233551301045</v>
+        <v>-19.10010326698957</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.574710134482305</v>
+        <v>-1.535280294100636</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.807544197512262</v>
+        <v>-1.913777427723457</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-11.87163137970801</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.81286922455146</v>
+        <v>-18.67280406682121</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.524309362691279</v>
+        <v>-1.482146567471004</v>
       </c>
       <c r="G44" t="n">
-        <v>-1.840300543520593</v>
+        <v>-1.937645559247736</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-11.62045949697563</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.50844543396926</v>
+        <v>-18.3825681741668</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.571801175396491</v>
+        <v>-1.541665337068827</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.556791924315062</v>
+        <v>-1.642647773904955</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-11.3522557395032</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.01179567139371</v>
+        <v>-17.87712797724453</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.584317032975793</v>
+        <v>-1.552509154299644</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.592975464137099</v>
+        <v>-1.677643285058332</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-11.06617671696478</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.63941468536139</v>
+        <v>-17.49660679477881</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.686604834645387</v>
+        <v>-1.64977105691005</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.671844922914171</v>
+        <v>-1.741078149156554</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-10.75815669052594</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.23249286581433</v>
+        <v>-17.07330680222758</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.787298820076368</v>
+        <v>-1.748568107676667</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.579364469019608</v>
+        <v>-1.651115533798452</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-10.42783264948614</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.96304503035805</v>
+        <v>-16.82132249929992</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.757143425721236</v>
+        <v>-1.726753359036493</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.593410585748255</v>
+        <v>-1.662203801372615</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-10.07623179470848</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.55332180987624</v>
+        <v>-16.38642578246036</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.7380420758922</v>
+        <v>-1.709641835002291</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.797159946926935</v>
+        <v>-1.850679905099053</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.704245587739257</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.38563376334793</v>
+        <v>-16.22021910501272</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.596216875689864</v>
+        <v>-1.57042247546002</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.669351529412044</v>
+        <v>-1.735265119991792</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.319246062879364</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.97452206491591</v>
+        <v>-15.81255904542875</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.610346105535248</v>
+        <v>-1.587274882130276</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.568124642232571</v>
+        <v>-1.642911780275768</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-8.923188601161787</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.97204333843439</v>
+        <v>-15.82970479251103</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.661426449280775</v>
+        <v>-1.647683450977877</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.714437950738734</v>
+        <v>-1.80158938714836</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-8.527985016795769</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.62804792627138</v>
+        <v>-15.49560473024666</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.581994754714008</v>
+        <v>-1.572250964028247</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.565342797325296</v>
+        <v>-1.65476273292117</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.133522975487955</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.24946767953183</v>
+        <v>-15.13293820085891</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.513773552893077</v>
+        <v>-1.505467130226189</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.908526634348391</v>
+        <v>-2.004727622468676</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.751166893208647</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.19902779568586</v>
+        <v>-15.06986023426197</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.648495026117785</v>
+        <v>-1.632659532875848</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.77494918873054</v>
+        <v>-1.881299755106541</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.379425293102375</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.10955897002132</v>
+        <v>-14.97735533533307</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.694358799536315</v>
+        <v>-1.683143417783612</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.744627568141934</v>
+        <v>-1.857949858310155</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.028044244736004</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.70388873623219</v>
+        <v>-14.58908996599015</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.59541507856369</v>
+        <v>-1.579882703747501</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.059132490883706</v>
+        <v>-2.172073438516308</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.695775035734182</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.72876889217792</v>
+        <v>-14.62261877508346</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.667175921356267</v>
+        <v>-1.637871214195979</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.185992441066415</v>
+        <v>-2.313243511798477</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.390013476049332</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.58556988104598</v>
+        <v>-14.49192584351709</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.632209744244092</v>
+        <v>-1.61124568279876</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.048010000261474</v>
+        <v>-2.170020055632204</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.108820228457677</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.56316356257491</v>
+        <v>-14.48133625464335</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.695268154813561</v>
+        <v>-1.674274759327028</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.316739151708321</v>
+        <v>-2.453342892576792</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.857884113332346</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.32070793403086</v>
+        <v>-14.24806707000224</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.640115268347893</v>
+        <v>-1.62411354887248</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.588519043440123</v>
+        <v>-2.724452990367826</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.633589230629955</v>
       </c>
       <c r="E63" t="n">
-        <v>-14.39165720168353</v>
+        <v>-14.31724651716908</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.749580132098119</v>
+        <v>-1.725990673965254</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.721368027034803</v>
+        <v>-2.862865663777055</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-5.438686819117152</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.46651767482973</v>
+        <v>-14.41386795987992</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.780747550874702</v>
+        <v>-1.747766310550493</v>
       </c>
       <c r="G64" t="n">
-        <v>-2.946428569146366</v>
+        <v>-3.087735534620808</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-5.269859069483027</v>
       </c>
       <c r="E65" t="n">
-        <v>-14.4941258966072</v>
+        <v>-14.43944724380762</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.05994895503048</v>
+        <v>-2.01629012370893</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.002857486404298</v>
+        <v>-3.14586093726156</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-5.128910877359306</v>
       </c>
       <c r="E66" t="n">
-        <v>-14.52745914542583</v>
+        <v>-14.47269249050265</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.948474709457953</v>
+        <v>-1.922870980495919</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.421483588390757</v>
+        <v>-3.547253290042145</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-5.013139694073954</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.69046352337564</v>
+        <v>-14.63324258700526</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.185131975857838</v>
+        <v>-2.146533266643544</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.537030376683425</v>
+        <v>-3.669307346474676</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-4.922041166262717</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.79271710199716</v>
+        <v>-14.74340168973059</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.26965801557993</v>
+        <v>-2.225788956963103</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.444383696555387</v>
+        <v>-3.576362436927756</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-4.851932946174029</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.98442483926263</v>
+        <v>-14.93552499257975</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.267330848311279</v>
+        <v>-2.233635812984501</v>
       </c>
       <c r="G69" t="n">
-        <v>-3.59291661417913</v>
+        <v>-3.730043478782361</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-4.799025783997215</v>
       </c>
       <c r="E70" t="n">
-        <v>-15.00796051831996</v>
+        <v>-14.94859330793501</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.368904854978304</v>
+        <v>-2.331723957755416</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.476504471671019</v>
+        <v>-3.609055225846816</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-4.758773521993411</v>
       </c>
       <c r="E71" t="n">
-        <v>-15.16013574605956</v>
+        <v>-15.11709292960324</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.426732028200174</v>
+        <v>-2.390514265330068</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.654835886148608</v>
+        <v>-3.793282782605905</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-4.725113420324701</v>
       </c>
       <c r="E72" t="n">
-        <v>-15.47842964912319</v>
+        <v>-15.4378948931896</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.568601229464312</v>
+        <v>-2.529513619563327</v>
       </c>
       <c r="G72" t="n">
-        <v>-3.745331403255204</v>
+        <v>-3.885929462733944</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-4.693583798887775</v>
       </c>
       <c r="E73" t="n">
-        <v>-15.45931852128042</v>
+        <v>-15.42109626559487</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.639218044650031</v>
+        <v>-2.604999885588493</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.563655908080644</v>
+        <v>-3.702347254881287</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-4.657479319652555</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.84454781735898</v>
+        <v>-15.80454596317388</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.839227315575522</v>
+        <v>-2.800457491120886</v>
       </c>
       <c r="G74" t="n">
-        <v>-3.497576091267422</v>
+        <v>-3.640486650994212</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-4.61366906969807</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.91818114978159</v>
+        <v>-15.8758863513759</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.044511824910413</v>
+        <v>-3.008235393957905</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.427345507624188</v>
+        <v>-3.545874590105675</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-4.556048639337289</v>
       </c>
       <c r="E76" t="n">
-        <v>-16.31828769375617</v>
+        <v>-16.27472664257196</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.072457388161699</v>
+        <v>-3.051234209352422</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.41266870900971</v>
+        <v>-3.550670705842118</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.483963852798464</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.71782222392733</v>
+        <v>-16.68086622102032</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.151561519268383</v>
+        <v>-3.127356046270287</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.223654814527911</v>
+        <v>-3.357774939907989</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.394047637042682</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.30055273040865</v>
+        <v>-17.2561556590502</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.399649283723115</v>
+        <v>-3.357388708365503</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.089881808635384</v>
+        <v>-3.225840200597422</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-4.290320632978405</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.81131216680213</v>
+        <v>-17.77925983778263</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.367738735902762</v>
+        <v>-3.328128002267016</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.957145272198643</v>
+        <v>-3.086562172972749</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.17325905065425</v>
       </c>
       <c r="E80" t="n">
-        <v>-18.3819179362535</v>
+        <v>-18.34498637838083</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.469742975174075</v>
+        <v>-3.442178754458408</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.730226907477653</v>
+        <v>-2.857800652662932</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.050125333398349</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.04556150638227</v>
+        <v>-18.99018861460759</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.626504091354836</v>
+        <v>-3.594006862710452</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.453025107130443</v>
+        <v>-2.579381489605859</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-3.926536099530482</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.89677182496023</v>
+        <v>-19.83759039683623</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.64469119689976</v>
+        <v>-3.616520739332596</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.34704121626946</v>
+        <v>-2.490391786614273</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-3.814333451406377</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.55045159909423</v>
+        <v>-20.49440891337878</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.613831785555792</v>
+        <v>-3.573253028560398</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.085254454573632</v>
+        <v>-2.226106742409452</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.72224481135993</v>
       </c>
       <c r="E84" t="n">
-        <v>-21.54336489270285</v>
+        <v>-21.49165875607836</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.539880667686837</v>
+        <v>-3.489078997332724</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.933274787108714</v>
+        <v>-2.070157201368599</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.663972279941251</v>
       </c>
       <c r="E85" t="n">
-        <v>-22.33142390958087</v>
+        <v>-22.27736127164653</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.453692365629993</v>
+        <v>-3.421957822056848</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.501570591753257</v>
+        <v>-1.643845580587349</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.647808992015588</v>
       </c>
       <c r="E86" t="n">
-        <v>-23.7976321799618</v>
+        <v>-23.74201972685064</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.403037365481887</v>
+        <v>-3.361764369511391</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.265250666827189</v>
+        <v>-1.387206943122383</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.687017454141925</v>
       </c>
       <c r="E87" t="n">
-        <v>-24.85165317039999</v>
+        <v>-24.80159462908965</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.233647944563885</v>
+        <v>-3.199239114234538</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.093314073331525</v>
+        <v>-1.225297702710761</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.787155227618072</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.29216482068841</v>
+        <v>-26.24093291773001</v>
       </c>
       <c r="F88" t="n">
-        <v>-3.119484745214554</v>
+        <v>-3.092140529807899</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.8933732485021709</v>
+        <v>-1.020389646904621</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.959658799699801</v>
       </c>
       <c r="E89" t="n">
-        <v>-27.68379129131455</v>
+        <v>-27.63618458694797</v>
       </c>
       <c r="F89" t="n">
-        <v>-3.134430439206713</v>
+        <v>-3.090566269596752</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.6963267157380308</v>
+        <v>-0.8079378535028322</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-4.205303786428336</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.40005026240728</v>
+        <v>-29.34742254798837</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.154553591470935</v>
+        <v>-3.110092963023211</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.8538456279831635</v>
+        <v>-0.9520706649463517</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-4.532761781859118</v>
       </c>
       <c r="E91" t="n">
-        <v>-30.94917853375451</v>
+        <v>-30.89391075562747</v>
       </c>
       <c r="F91" t="n">
-        <v>-3.223654814527911</v>
+        <v>-3.165935199457113</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.7387046272604496</v>
+        <v>-0.8437498288029841</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-4.937566326357009</v>
       </c>
       <c r="E92" t="n">
-        <v>-32.69488888221353</v>
+        <v>-32.63411852685778</v>
       </c>
       <c r="F92" t="n">
-        <v>-3.040473505238342</v>
+        <v>-2.989901618206973</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.120844070999123</v>
+        <v>-1.235437502952742</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.425730605910584</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.73214048816043</v>
+        <v>-34.65908650305155</v>
       </c>
       <c r="F93" t="n">
-        <v>-3.024706458092541</v>
+        <v>-2.953385625917986</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.054016236135262</v>
+        <v>-1.161344603884646</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.98716148016868</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.83440121841669</v>
+        <v>-36.76380640376187</v>
       </c>
       <c r="F94" t="n">
-        <v>-3.184831210997739</v>
+        <v>-3.108450256715927</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.109330459827538</v>
+        <v>-1.232435652736456</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.619586996140032</v>
       </c>
       <c r="E95" t="n">
-        <v>-38.9836159706228</v>
+        <v>-38.88313954599739</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.201600504551258</v>
+        <v>-3.1315361471415</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.530396176240588</v>
+        <v>-1.649766167903183</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.313268832612636</v>
       </c>
       <c r="E96" t="n">
-        <v>-40.91533836334733</v>
+        <v>-40.82873694021023</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.259530346917333</v>
+        <v>-3.180215988515372</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.886222985021525</v>
+        <v>-2.014818532641989</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.049205116764622</v>
       </c>
       <c r="E97" t="n">
-        <v>-43.09418294167038</v>
+        <v>-42.99101756326817</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.167211230249378</v>
+        <v>-3.081252711515279</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.155001026537041</v>
+        <v>-2.307088252153031</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.828036464735526</v>
       </c>
       <c r="E98" t="n">
-        <v>-45.33448233631055</v>
+        <v>-45.23291077414696</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.200798707425084</v>
+        <v>-3.087926205888618</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.525568191021726</v>
+        <v>-2.682236416072016</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-9.608135994369409</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.45710700241923</v>
+        <v>-47.3682383023476</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.973210548763326</v>
+        <v>-2.862586990385641</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.908861440380991</v>
+        <v>-3.067993724892206</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-10.42055360435554</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.95742822727627</v>
+        <v>-49.85278881330369</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.002955266541636</v>
+        <v>-2.88940319305067</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.61082504633264</v>
+        <v>-3.801701652430733</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.18288595031812</v>
       </c>
       <c r="E101" t="n">
-        <v>-52.17329114334388</v>
+        <v>-52.07672470196029</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.957839511173745</v>
+        <v>-2.832407150996175</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.986716339295395</v>
+        <v>-4.156330654529276</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.01112664645551</v>
       </c>
       <c r="E102" t="n">
-        <v>-54.42487436583289</v>
+        <v>-54.30928602098186</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.889188076748526</v>
+        <v>-2.761540996460243</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.623646375903341</v>
+        <v>-4.802584027232428</v>
       </c>
     </row>
   </sheetData>
